--- a/pred_ohlcv/54_21/2020-01-16 OGO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 OGO ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>303402.1815</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>303402.1815</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>223442.1815</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>288329.1815</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>288329.1815</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>230825.1399</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>244825.1399</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>244825.1399</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>244825.1399</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>244825.1399</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>230901.3194</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>327019.7035</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>348052.7035</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>309000.7121</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>393841.7121</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>384719.9453</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>160965.5535</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>174965.5535</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>139670.4893</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-1564110.355988803</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-2023141.490588803</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-2125331.596188803</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-2143711.135188803</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-2098590.906188803</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-2139323.876188803</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-2139323.876188803</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-2139323.876188803</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-2139323.876188803</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-2138323.876188803</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-2138323.876188803</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-2140818.876188803</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-2254133.543788803</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-2322133.543788803</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-16 OGO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 OGO ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>303402.1815</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>303402.1815</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>223442.1815</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>288329.1815</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>288329.1815</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>230825.1399</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>244825.1399</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>244825.1399</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>244825.1399</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>244825.1399</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>230901.3194</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -782,7 +782,7 @@
         <v>309000.7121</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>393841.7121</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>384719.9453</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-2027141.490588803</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-2023141.490588803</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-1891453.925688803</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-1869058.977288803</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-1881711.105088803</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-1909335.003488803</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-1909335.003488803</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-1909335.003488803</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-2125331.596188803</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-2125331.596188803</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-2143711.135188803</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-2098590.906188803</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-2139323.876188803</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-2139323.876188803</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-2139323.876188803</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-2139323.876188803</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-2138323.876188803</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-2138323.876188803</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-2140818.876188803</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-2254133.543788803</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-2322133.543788803</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
